--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pham Tu</t>
+          <t>Tu</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
